--- a/chetty1_increase_admin.xlsx
+++ b/chetty1_increase_admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsvilhuber/Dropbox/Correspondence2018/ILR/Committees/National Academies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsvilhuber/Workspace/git/clone-chetty-use-admin-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24779089-5279-C942-8485-FE593A57F248}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD46BB0D-6FA5-654E-B514-7F91D64509F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chetty1_datasets" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>X</t>
   </si>
@@ -40,11 +40,14 @@
   <si>
     <t>JPE</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -880,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1039,16 +1042,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
